--- a/data/balance_sheet/3digits/total/102_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/102_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>102-Processing and preserving of fish, crustaceans and mollusks</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>102-Processing and preserving of fish, crustaceans and mollusks</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,18 +915,23 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>705429.6524100001</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>825462.1905200001</v>
+        <v>825462.1905199999</v>
       </c>
       <c r="E5" s="32" t="n">
         <v>1072866.19661</v>
@@ -1490,32 +940,37 @@
         <v>1159989.36394</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>1360557.41776</v>
+        <v>1495749.3954</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>1885782.72664</v>
+        <v>1872893.25135</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>2143502.49603</v>
+        <v>2373425.18266</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>2936999.82539</v>
+        <v>2937015.22715</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>3604134.00808</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>5253267.29002</v>
+        <v>5256483.968649999</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>7039341.30883</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>7094690.597289999</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>9157189.843</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>33110.66402</v>
@@ -1530,13 +985,13 @@
         <v>79380.56243999999</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>107553.29807</v>
+        <v>110900.91537</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>199124.47833</v>
+        <v>178315.55597</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>208967.73611</v>
+        <v>271595.58524</v>
       </c>
       <c r="J6" s="33" t="n">
         <v>257997.89478</v>
@@ -1545,17 +1000,22 @@
         <v>355694.68548</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>348541.56273</v>
+        <v>348634.1644600001</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>937120.4337799998</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>939743.90128</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>1563435.745</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>4597.6915</v>
@@ -1564,19 +1024,19 @@
         <v>6067.552070000001</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>5346.943039999999</v>
+        <v>5346.94304</v>
       </c>
       <c r="F7" s="21" t="n">
         <v>4808.73766</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>6009.98777</v>
+        <v>6788.6322</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>8814.07245</v>
+        <v>9512.658629999998</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>21070.3671</v>
+        <v>27490.8613</v>
       </c>
       <c r="J7" s="21" t="n">
         <v>13647.53576</v>
@@ -1585,17 +1045,22 @@
         <v>10859.9952</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>8449.518259999999</v>
+        <v>8533.356200000002</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>12190.0513</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>12786.89497</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>24906.428</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>20917.23174</v>
@@ -1613,10 +1078,10 @@
         <v>122767.59085</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>91951.69121</v>
+        <v>93922.91420999997</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>134435.14294</v>
+        <v>137611.20633</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>129186.11038</v>
@@ -1628,14 +1093,19 @@
         <v>108616.85925</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>242092.19253</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>243676.27733</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>267811.85</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>17091.79603</v>
@@ -1650,13 +1120,13 @@
         <v>49162.29197</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>82114.10749000001</v>
+        <v>84683.08035999999</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>135390.92766</v>
+        <v>111912.19612</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>92287.31122</v>
+        <v>145318.60276</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>165122.88903</v>
@@ -1665,17 +1135,22 @@
         <v>252457.84506</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>256199.7296</v>
+        <v>256208.49339</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>745445.1473600001</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>745947.2398899999</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>1326740.956</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>9502.58359</v>
@@ -1693,7 +1168,7 @@
         <v>103700.61083</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>37416.08227</v>
+        <v>37416.08227000001</v>
       </c>
       <c r="I10" s="22" t="n">
         <v>39814.18742</v>
@@ -1708,14 +1183,19 @@
         <v>25919.71895</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>63562.27911</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>63623.65604</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>58836.52</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>6.52834</v>
@@ -1730,7 +1210,7 @@
         <v>19.85785</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>362.2227899999999</v>
+        <v>362.22279</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>383.86928</v>
@@ -1742,20 +1222,25 @@
         <v>803.8451600000001</v>
       </c>
       <c r="K11" s="22" t="n">
-        <v>699.21516</v>
+        <v>699.2151600000001</v>
       </c>
       <c r="L11" s="22" t="n">
         <v>1195.17457</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>955.3217</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>957.14513</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>2813.031</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>88.54302</v>
@@ -1770,13 +1255,13 @@
         <v>917.61324</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>2381.53142</v>
+        <v>2537.26161</v>
       </c>
       <c r="H12" s="33" t="n">
-        <v>22870.81438</v>
+        <v>14851.78999</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>3163.61356</v>
+        <v>14657.40635</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>4611.57088</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>5777.4354</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>6009.775</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0.69163</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>5273.398800000001</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>5273.399</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>87.616</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>5.10337</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1893,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>18625.85129</v>
+        <v>10606.8269</v>
       </c>
       <c r="I15" s="22" t="n">
-        <v>0</v>
+        <v>11493.79279</v>
       </c>
       <c r="J15" s="21" t="n">
         <v>740.50924</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>100.88657</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>171.334</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>0.23539</v>
@@ -1930,7 +1435,7 @@
         <v>294.72628</v>
       </c>
       <c r="G16" s="22" t="n">
-        <v>2351.50249</v>
+        <v>2507.23268</v>
       </c>
       <c r="H16" s="21" t="n">
         <v>2776.63488</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>398.04666</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>564.269</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>193969.08963</v>
@@ -2010,32 +1525,37 @@
         <v>312198.68457</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>345230.1507700001</v>
+        <v>364110.63952</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>560990.9236100001</v>
+        <v>556030.06291</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>672006.47064</v>
+        <v>702934.40577</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>949310.3591200002</v>
+        <v>949310.35912</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>1021999.13821</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>1502204.23358</v>
+        <v>1503256.41103</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>1889498.04701</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>1922703.87748</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>2387871.889</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>141581.64852</v>
@@ -2050,13 +1570,13 @@
         <v>245508.9942</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>286402.65522</v>
+        <v>299864.7048900001</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>473586.3579299999</v>
+        <v>468574.49723</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>554011.24243</v>
+        <v>583897.345</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>742685.22277</v>
@@ -2065,17 +1585,22 @@
         <v>825377.9848999999</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>1270617.34914</v>
+        <v>1271669.52659</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>1692189.7496</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>1720356.40818</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>2141630.821</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>37065.27093999999</v>
@@ -2087,16 +1612,16 @@
         <v>58194.27168</v>
       </c>
       <c r="F20" s="21" t="n">
-        <v>59185.17246000001</v>
+        <v>59185.17246</v>
       </c>
       <c r="G20" s="22" t="n">
-        <v>51021.36081000001</v>
+        <v>56439.79989</v>
       </c>
       <c r="H20" s="21" t="n">
-        <v>72283.21836</v>
+        <v>72334.21836</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>106366.3425</v>
+        <v>107408.17506</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>189877.56337</v>
@@ -2108,14 +1633,19 @@
         <v>169791.55431</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>144207.16886</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>147583.56218</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>192574.481</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>46.04911</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>2353.69873</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>3665.291</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,18 +1725,23 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>739.30673</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>610.40759</v>
+        <v>610.4075899999999</v>
       </c>
       <c r="E23" s="22" t="n">
         <v>1346.64659</v>
@@ -2219,7 +1759,7 @@
         <v>6551.62419</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>8178.13849</v>
+        <v>8178.138489999999</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>9166.361640000001</v>
@@ -2228,14 +1768,19 @@
         <v>13102.97706</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>11967.35913</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>11989.47313</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>12742.383</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>10705.85041</v>
@@ -2268,14 +1813,19 @@
         <v>11975.17906</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>3616.83607</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>4016.83607</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>3987.822</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>21975.73388</v>
@@ -2290,13 +1840,13 @@
         <v>24974.19312</v>
       </c>
       <c r="G25" s="22" t="n">
-        <v>23641.53774</v>
+        <v>24026.98194</v>
       </c>
       <c r="H25" s="21" t="n">
         <v>18441.93733</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>21229.8842</v>
+        <v>21615.3284</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>33175.29867</v>
@@ -2308,14 +1858,19 @@
         <v>114280.91414</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>109089.9644</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>110330.62897</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>113528.81</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>18052.67174</v>
@@ -2330,19 +1885,19 @@
         <v>20212.73368</v>
       </c>
       <c r="G26" s="22" t="n">
-        <v>18355.70145</v>
+        <v>18741.14565</v>
       </c>
       <c r="H26" s="21" t="n">
         <v>15639.80347</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>16965.58585</v>
+        <v>17351.03005</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>26053.34057</v>
       </c>
       <c r="K26" s="22" t="n">
-        <v>38779.97885</v>
+        <v>38779.97884999999</v>
       </c>
       <c r="L26" s="22" t="n">
         <v>75472.52808</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>69219.33231999999</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>72927.137</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>23734.97674</v>
@@ -2367,16 +1927,16 @@
         <v>46720.02214</v>
       </c>
       <c r="F27" s="33" t="n">
-        <v>42226.07024</v>
+        <v>42226.07023999999</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>47566.11695</v>
+        <v>53563.87940999999</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>43528.59423999999</v>
+        <v>49742.00136</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>58365.5175</v>
+        <v>65655.49676000001</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>119650.97372</v>
@@ -2388,14 +1948,19 @@
         <v>205480.12308</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>173313.0473</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>175089.46432</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>218878.887</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>3268.88417</v>
@@ -2410,13 +1975,13 @@
         <v>22890.88135</v>
       </c>
       <c r="G28" s="22" t="n">
-        <v>18380.90695</v>
+        <v>20705.9785</v>
       </c>
       <c r="H28" s="21" t="n">
-        <v>10755.33093</v>
+        <v>14867.31803</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>11415.57056</v>
+        <v>12218.30737</v>
       </c>
       <c r="J28" s="21" t="n">
         <v>12131.27493</v>
@@ -2428,14 +1993,19 @@
         <v>100328.66437</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>111201.90771</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>112906.40229</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>108428.702</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>1548.55034</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>50.91025</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>50.91</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>20.03993</v>
@@ -2493,10 +2068,10 @@
         <v>717.74397</v>
       </c>
       <c r="H30" s="21" t="n">
-        <v>617.50755</v>
+        <v>529.64955</v>
       </c>
       <c r="I30" s="22" t="n">
-        <v>1783.61797</v>
+        <v>4824.390969999999</v>
       </c>
       <c r="J30" s="21" t="n">
         <v>63200.64397</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>6468.33342</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>7219.937</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>79.50197</v>
@@ -2530,13 +2110,13 @@
         <v>121.86456</v>
       </c>
       <c r="G31" s="22" t="n">
-        <v>221.05765</v>
+        <v>280.52574</v>
       </c>
       <c r="H31" s="21" t="n">
-        <v>212.43355</v>
+        <v>138.05855</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>48.18979</v>
+        <v>206.39979</v>
       </c>
       <c r="J31" s="21" t="n">
         <v>194.66102</v>
@@ -2545,17 +2125,22 @@
         <v>177.1547</v>
       </c>
       <c r="L31" s="22" t="n">
-        <v>289.4195599999999</v>
+        <v>289.41956</v>
       </c>
       <c r="M31" s="22" t="n">
         <v>341.85145</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>177.53</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>18818.00033</v>
@@ -2570,32 +2155,37 @@
         <v>19204.26207</v>
       </c>
       <c r="G32" s="22" t="n">
-        <v>28225.55287</v>
+        <v>31838.77569</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>30632.4667</v>
+        <v>32896.11972</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>42847.17167</v>
+        <v>46135.43111999999</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>43823.53829</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>54390.25683999999</v>
+        <v>54390.25684</v>
       </c>
       <c r="L32" s="22" t="n">
         <v>45826.75045</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>55250.04447</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>55321.96691</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>103001.808</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>9293.508</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,15 +2310,20 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>9293.508</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
-        <v>393574.4997700001</v>
+        <v>393574.49977</v>
       </c>
       <c r="D36" s="23" t="n">
         <v>436429.73938</v>
@@ -2730,13 +2335,13 @@
         <v>643982.95718</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>756017.1906000001</v>
+        <v>846917.8280399999</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>919177.7908199999</v>
+        <v>933081.0106700001</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>1074581.88072</v>
+        <v>1176211.21098</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>1453579.18618</v>
@@ -2745,38 +2350,43 @@
         <v>1803670.35642</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>2932534.88641</v>
+        <v>2934502.37315</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>3687271.85754</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>3702878.86575</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>4593052.591</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
-        <v>54492.21232999999</v>
+        <v>54492.21233</v>
       </c>
       <c r="D37" s="22" t="n">
-        <v>57491.17948</v>
+        <v>57491.17948000001</v>
       </c>
       <c r="E37" s="22" t="n">
         <v>58583.15851</v>
       </c>
       <c r="F37" s="21" t="n">
-        <v>70309.21695</v>
+        <v>70309.21694999999</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>82753.85387000001</v>
+        <v>88192.11747999999</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>93437.36406000001</v>
+        <v>94267.92352000001</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>123804.90183</v>
+        <v>127003.41884</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>160450.8941</v>
@@ -2785,17 +2395,22 @@
         <v>161764.80542</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>235986.88881</v>
+        <v>236484.76231</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>330837.88764</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>326805.92352</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>488721.678</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>221390.3413</v>
@@ -2810,13 +2425,13 @@
         <v>383842.98453</v>
       </c>
       <c r="G38" s="22" t="n">
-        <v>373866.98104</v>
+        <v>435905.67304</v>
       </c>
       <c r="H38" s="21" t="n">
-        <v>509719.18261</v>
+        <v>513684.97231</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>608739.6646</v>
+        <v>669514.80536</v>
       </c>
       <c r="J38" s="21" t="n">
         <v>839343.00499</v>
@@ -2825,17 +2440,22 @@
         <v>1087300.89568</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>1821546.42057</v>
+        <v>1822266.74053</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>2204059.29035</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>2204101.73867</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>2667673.974</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>42181.94613</v>
@@ -2844,19 +2464,19 @@
         <v>53289.22752</v>
       </c>
       <c r="E39" s="22" t="n">
-        <v>72937.00654</v>
+        <v>72937.00653999999</v>
       </c>
       <c r="F39" s="21" t="n">
-        <v>75493.38528999999</v>
+        <v>75493.38529000001</v>
       </c>
       <c r="G39" s="22" t="n">
-        <v>88230.11246999999</v>
+        <v>100443.64487</v>
       </c>
       <c r="H39" s="21" t="n">
-        <v>95069.54698</v>
+        <v>106104.71164</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>120770.14028</v>
+        <v>147969.99322</v>
       </c>
       <c r="J39" s="21" t="n">
         <v>125862.65286</v>
@@ -2868,17 +2488,22 @@
         <v>314101.70393</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>455077.43478</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>455305.4423199999</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>701235.693</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>8593.306170000002</v>
+        <v>8593.30617</v>
       </c>
       <c r="D40" s="22" t="n">
         <v>12922.14182</v>
@@ -2890,13 +2515,13 @@
         <v>21758.01881</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>44559.27376999999</v>
+        <v>44559.27377</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>49529.24106</v>
+        <v>49529.24105999999</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>50165.24942</v>
+        <v>50585.63775000001</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>89029.06609000001</v>
@@ -2905,17 +2530,22 @@
         <v>94116.15904000001</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>71221.93375999999</v>
+        <v>71892.42704</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>114453.35196</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>122568.76122</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>124937.372</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>1237.24126</v>
@@ -2948,14 +2578,19 @@
         <v>1627.51239</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>3772.46298</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>3804.43216</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>8266.184999999999</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,15 +2625,20 @@
       <c r="M42" s="22" t="n">
         <v>130.63611</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>52.104</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
-        <v>65679.45258</v>
+        <v>65679.45258000001</v>
       </c>
       <c r="D43" s="22" t="n">
         <v>78391.98413</v>
@@ -3007,16 +2647,16 @@
         <v>83962.4445</v>
       </c>
       <c r="F43" s="21" t="n">
-        <v>91037.52619999999</v>
+        <v>91037.52620000001</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>164053.47882</v>
+        <v>175263.62825</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>169657.01414</v>
+        <v>167728.72017</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>169075.87541</v>
+        <v>179111.30663</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>234851.88327</v>
@@ -3025,17 +2665,22 @@
         <v>279451.65293</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>488181.06306</v>
+        <v>488259.86306</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>579202.06594</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>590423.20397</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>602269.7929999999</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>5021.72304</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>6.462</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>5021.72304</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>6.462</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>26787.1548</v>
@@ -3204,19 +2869,19 @@
         <v>32208.66561</v>
       </c>
       <c r="E48" s="46" t="n">
-        <v>34582.49519</v>
+        <v>34582.49518999999</v>
       </c>
       <c r="F48" s="45" t="n">
         <v>23656.62742</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>26433.28069</v>
+        <v>29119.9629</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>38735.66958</v>
+        <v>38977.13432</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>24849.16717</v>
+        <v>27927.62231999999</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>19284.69811</v>
@@ -3225,17 +2890,22 @@
         <v>42096.46951</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>58769.82675</v>
+        <v>58797.57523</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>67814.77364999999</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>69380.8423</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>66760.22500000001</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>3895.40984</v>
@@ -3244,19 +2914,19 @@
         <v>5735.8923</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>5791.130629999999</v>
+        <v>5791.130630000001</v>
       </c>
       <c r="F49" s="21" t="n">
         <v>10035.00563</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>15924.84973</v>
+        <v>15992.83921</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>27082.5185</v>
+        <v>26954.61522</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>14143.30766</v>
+        <v>14148.391</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>15450.21374</v>
@@ -3265,17 +2935,22 @@
         <v>26078.63639</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>42922.43659999999</v>
+        <v>42950.18508</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>49994.37018999999</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>51560.43884</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>56435.484</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>22891.74496</v>
@@ -3290,13 +2965,13 @@
         <v>13621.62179</v>
       </c>
       <c r="G50" s="22" t="n">
-        <v>10508.43096</v>
+        <v>13127.12369</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>11653.15108</v>
+        <v>12022.5191</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>10705.85951</v>
+        <v>13779.23132</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>3834.48437</v>
@@ -3310,12 +2985,17 @@
       <c r="M50" s="22" t="n">
         <v>17820.40346</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>10324.741</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>34164.72443</v>
@@ -3327,35 +3007,40 @@
         <v>60172.67558</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>57492.21894</v>
+        <v>57492.21894000001</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>74652.50958</v>
+        <v>87875.56886999999</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>100366.23641</v>
+        <v>100907.47686</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>100595.49546</v>
+        <v>113470.84037</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>130414.90379</v>
+        <v>130430.30555</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>114535.96979</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>194844.28884</v>
+        <v>194920.95307</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>273523.99111</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>274094.48772</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>321174.269</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>21628.4152</v>
@@ -3370,32 +3055,37 @@
         <v>40725.57766</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>58043.98007</v>
+        <v>69434.31739</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>71815.57411000002</v>
+        <v>74121.61228</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>62493.47319</v>
+        <v>74321.09225999999</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>74460.57371000001</v>
+        <v>74475.97547</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>67734.54909</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>116776.93033</v>
+        <v>116852.95171</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>165314.48134</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>165783.22303</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>238583.701</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>142.11524</v>
@@ -3425,17 +3115,22 @@
         <v>76.45406</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>94.57519000000001</v>
+        <v>95.21803999999999</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>18.77014</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>8.823090000000001</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>656.217</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>5462.66562</v>
@@ -3456,7 +3151,7 @@
         <v>12753.38208</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>8145.028209999999</v>
+        <v>8145.02821</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>11492.66199</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>30016.51119</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>38145.617</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>2196.50049</v>
@@ -3490,16 +3190,16 @@
         <v>1218.77087</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>1450.67293</v>
+        <v>3248.34204</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>2192.35332</v>
+        <v>1330.361</v>
       </c>
       <c r="I55" s="22" t="n">
         <v>1374.28253</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>9485.907439999999</v>
+        <v>9485.907440000001</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>2634.71832</v>
@@ -3508,14 +3208,19 @@
         <v>4999.769679999999</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>9021.82343</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>9024.379349999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>11741.645</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1083.32568</v>
@@ -3530,13 +3235,13 @@
         <v>1380.35615</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>1909.07388</v>
+        <v>1944.12674</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>12801.34111</v>
+        <v>11848.76261</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>27787.24418</v>
+        <v>28834.97002</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>33837.48262</v>
@@ -3548,14 +3253,19 @@
         <v>18660.70344</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>67419.45213999999</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>67528.59819</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>29241.192</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>185.00438</v>
@@ -3573,7 +3283,7 @@
         <v>600.67078</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>760.6280800000001</v>
+        <v>810.4011800000001</v>
       </c>
       <c r="I57" s="22" t="n">
         <v>794.17347</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>1694.1356</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>2733.683</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>38.81727</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>69.803</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>3466.69782</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>2.411</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>391592.17869</v>
@@ -3729,38 +3459,43 @@
         <v>474168.46063</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>496417.89762</v>
+        <v>519867.24681</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>577177.2475899999</v>
+        <v>573106.13151</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>702027.1769900001</v>
+        <v>732724.25402</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>926294.1791799999</v>
+        <v>926294.1791800001</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>1183772.63471</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>1418289.39782</v>
+        <v>1418749.85934</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>1506517.60922</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>1535683.53387</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>2806140.166</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>543.86288</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>721.7080599999999</v>
+        <v>721.70806</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>862.06251</v>
@@ -3769,13 +3504,13 @@
         <v>844.08164</v>
       </c>
       <c r="G62" s="36" t="n">
-        <v>1367.71995</v>
+        <v>1424.31615</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>7160.51737</v>
+        <v>7322.88337</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>11095.85077</v>
+        <v>11154.26353</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>22428.33381</v>
@@ -3787,14 +3522,19 @@
         <v>18956.19374</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>3099.35014</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>17541.08909</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>4327.533</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>24.56171</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>1262.6178</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>1250.262</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3867,14 +3612,19 @@
         <v>10501.81947</v>
       </c>
       <c r="M64" s="22" t="n">
-        <v>981.4612099999999</v>
-      </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+        <v>10501.81947</v>
+      </c>
+      <c r="N64" s="22" t="n">
+        <v>981.461</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>519.3011700000001</v>
@@ -3966,35 +3726,40 @@
         <v>496.50229</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>810.91276</v>
+        <v>810.9127599999999</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>1242.36458</v>
+        <v>1298.96078</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>1356.95851</v>
+        <v>1519.32451</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>5098.47995</v>
+        <v>5156.89271</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>5623.654140000001</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>5624.269460000001</v>
+        <v>5624.26946</v>
       </c>
       <c r="L67" s="22" t="n">
         <v>7211.120380000001</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>855.2711300000001</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>5776.65182</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>2095.81</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>10680.60242</v>
@@ -4055,10 +3825,10 @@
         <v>3754.87852</v>
       </c>
       <c r="I69" s="36" t="n">
-        <v>6347.044700000001</v>
+        <v>6347.0447</v>
       </c>
       <c r="J69" s="37" t="n">
-        <v>672.6564</v>
+        <v>672.6564000000001</v>
       </c>
       <c r="K69" s="36" t="n">
         <v>835.80563</v>
@@ -4067,14 +3837,19 @@
         <v>5770.78258</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>9118.3773</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>9118.377299999998</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>1612.648</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>2164.79028</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>2725.94474</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>71.41077</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>6000</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>606.4368400000001</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>7348.22084</v>
@@ -4246,7 +4041,7 @@
         <v>10355.53203</v>
       </c>
       <c r="F74" s="21" t="n">
-        <v>8518.789600000002</v>
+        <v>8518.7896</v>
       </c>
       <c r="G74" s="22" t="n">
         <v>3707.29851</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>882.17625</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>1612.648</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>163648.9175</v>
@@ -4369,13 +4179,13 @@
         <v>158615.85811</v>
       </c>
       <c r="G77" s="23" t="n">
-        <v>178014.45505</v>
+        <v>178096.49183</v>
       </c>
       <c r="H77" s="33" t="n">
-        <v>198252.68526</v>
+        <v>195252.68526</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>244624.60027</v>
+        <v>247684.93495</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>265237.94203</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>397577.72157</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>823609.365</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>610.36814</v>
@@ -4409,13 +4224,13 @@
         <v>10.00042</v>
       </c>
       <c r="G78" s="22" t="n">
-        <v>0.00042</v>
+        <v>10.00042</v>
       </c>
       <c r="H78" s="21" t="n">
         <v>10</v>
       </c>
       <c r="I78" s="22" t="n">
-        <v>71.18719999999999</v>
+        <v>81.18719999999999</v>
       </c>
       <c r="J78" s="21" t="n">
         <v>12869.5272</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0.5</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>9463.522379999999</v>
@@ -4489,13 +4314,13 @@
         <v>7416.609469999999</v>
       </c>
       <c r="G80" s="22" t="n">
-        <v>14317.94662</v>
+        <v>14347.94662</v>
       </c>
       <c r="H80" s="21" t="n">
         <v>22140.0857</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>20899.77601</v>
+        <v>20929.77601</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>27884.03697</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>21903.4308</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>489031.532</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>676.5791999999999</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>154386.50308</v>
@@ -4609,13 +4449,13 @@
         <v>151189.24822</v>
       </c>
       <c r="G83" s="22" t="n">
-        <v>163818.37656</v>
+        <v>163860.41334</v>
       </c>
       <c r="H83" s="21" t="n">
-        <v>176124.96811</v>
+        <v>173124.96811</v>
       </c>
       <c r="I83" s="22" t="n">
-        <v>223717.10111</v>
+        <v>226737.43579</v>
       </c>
       <c r="J83" s="21" t="n">
         <v>225922.84191</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>379296.79077</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>342400.483</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>134.8969</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>3675</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>7875.15</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>52</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>52</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>193455.16004</v>
@@ -4809,13 +4674,13 @@
         <v>276823.58761</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>291888.74969</v>
+        <v>315198.96144</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>343036.15377</v>
+        <v>341709.01599</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>392812.08886</v>
+        <v>420156.71755</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>541199.48759</v>
@@ -4824,17 +4689,22 @@
         <v>664635.86976</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>809861.5006500001</v>
+        <v>810152.63027</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>921707.70887</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>928912.3952700001</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>1758818.207</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>26112.38558</v>
@@ -4849,32 +4719,37 @@
         <v>18677.30985</v>
       </c>
       <c r="G89" s="22" t="n">
-        <v>15722.68178</v>
+        <v>17025.4018</v>
       </c>
       <c r="H89" s="21" t="n">
         <v>19605.48025</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>24781.67448</v>
+        <v>25478.2695</v>
       </c>
       <c r="J89" s="21" t="n">
         <v>31742.43354</v>
       </c>
       <c r="K89" s="22" t="n">
-        <v>35764.41951000001</v>
+        <v>35764.41951</v>
       </c>
       <c r="L89" s="22" t="n">
         <v>41097.43139</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>41222.61617999999</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>41244.69264</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>297983.532</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>7553.36468</v>
@@ -4889,13 +4764,13 @@
         <v>11428.60797</v>
       </c>
       <c r="G90" s="22" t="n">
-        <v>10914.20773</v>
+        <v>11301.2574</v>
       </c>
       <c r="H90" s="21" t="n">
-        <v>10154.28341</v>
+        <v>10228.96713</v>
       </c>
       <c r="I90" s="22" t="n">
-        <v>15739.76063</v>
+        <v>16689.75936</v>
       </c>
       <c r="J90" s="21" t="n">
         <v>17881.10156</v>
@@ -4909,15 +4784,20 @@
       <c r="M90" s="22" t="n">
         <v>33363.60216</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>45995.26</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
-        <v>99681.61202000002</v>
+        <v>99681.61202</v>
       </c>
       <c r="D91" s="22" t="n">
         <v>106505.93144</v>
@@ -4929,13 +4809,13 @@
         <v>125388.35781</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>116947.77286</v>
+        <v>122631.301</v>
       </c>
       <c r="H91" s="21" t="n">
         <v>138442.06685</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>161817.20559</v>
+        <v>168113.43969</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>193546.64664</v>
@@ -4947,14 +4827,19 @@
         <v>265489.106</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>274963.60514</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>277460.64736</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>569946.591</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>216543.6117</v>
@@ -4969,13 +4854,13 @@
         <v>304464.18181</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>316756.11615</v>
+        <v>338120.85117</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>368477.7355900001</v>
+        <v>367769.50044</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>374905.84573</v>
+        <v>402071.8565399999</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>508063.09261</v>
@@ -4984,17 +4869,22 @@
         <v>611485.5896599999</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>807021.8797099999</v>
+        <v>807242.86164</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>954576.1050000001</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>956837.63836</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>1404794.432</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>41539.33969</v>
@@ -5006,16 +4896,16 @@
         <v>52144.76361</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>57636.84037000001</v>
+        <v>57636.84037</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>61240.33479</v>
+        <v>66141.75424000001</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>73947.94201</v>
+        <v>71856.82693</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>76167.73519999998</v>
+        <v>84904.86798000001</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>117089.56517</v>
@@ -5024,38 +4914,43 @@
         <v>137009.72105</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>180164.17151</v>
+        <v>180180.30786</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>232848.34475</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>235784.42978</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>309040.268</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>34033.5259</v>
+        <v>34033.52589999999</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>36219.51437</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>38063.85243000001</v>
+        <v>38063.85243</v>
       </c>
       <c r="F94" s="21" t="n">
         <v>44608.53977</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>48290.59129</v>
+        <v>49270.20802000001</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>55826.46793000001</v>
+        <v>55691.58422</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>59176.04574</v>
+        <v>60655.16705999999</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>73552.02781</v>
@@ -5064,29 +4959,34 @@
         <v>90734.40446999999</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>120833.68467</v>
+        <v>120887.69601</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>157224.66054</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>158326.70841</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>207013.553</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
-        <v>3194.94646</v>
+        <v>3194.946460000001</v>
       </c>
       <c r="D95" s="22" t="n">
         <v>3389.86158</v>
       </c>
       <c r="E95" s="22" t="n">
-        <v>3801.81869</v>
+        <v>3801.818690000001</v>
       </c>
       <c r="F95" s="21" t="n">
-        <v>3865.95267</v>
+        <v>3865.952670000001</v>
       </c>
       <c r="G95" s="22" t="n">
         <v>3786.6431</v>
@@ -5098,23 +4998,28 @@
         <v>4953.25763</v>
       </c>
       <c r="J95" s="21" t="n">
-        <v>5283.739699999999</v>
+        <v>5283.7397</v>
       </c>
       <c r="K95" s="22" t="n">
-        <v>6542.72248</v>
+        <v>6542.722479999999</v>
       </c>
       <c r="L95" s="22" t="n">
         <v>9888.50488</v>
       </c>
       <c r="M95" s="22" t="n">
-        <v>6050.887989999999</v>
-      </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+        <v>6050.88799</v>
+      </c>
+      <c r="N95" s="22" t="n">
+        <v>44414.277</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>257329.68017</v>
@@ -5129,13 +5034,13 @@
         <v>316418.36015</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>322552.1209099999</v>
+        <v>336328.99033</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>371360.22016</v>
+        <v>368952.52772</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>361891.82517</v>
+        <v>386528.18104</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>462449.54453</v>
@@ -5144,17 +5049,22 @@
         <v>545082.0274400001</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>728359.93243</v>
+        <v>728359.9324299999</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>862572.1423900001</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>864238.81541</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>1240997.98</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>16003.27341</v>
@@ -5169,32 +5079,37 @@
         <v>19804.99973</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>35075.14113</v>
+        <v>35302.05606</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>33880.24413</v>
+        <v>34302.89986</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>30075.31351</v>
+        <v>31817.65383</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>43905.16665</v>
       </c>
       <c r="K97" s="22" t="n">
-        <v>66473.73275000001</v>
+        <v>66473.73275</v>
       </c>
       <c r="L97" s="22" t="n">
         <v>67025.57683999999</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>58212.76384</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>58288.58907</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>83907.05</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>6122.78077</v>
@@ -5209,13 +5124,13 @@
         <v>7367.15778</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>5707.38177</v>
+        <v>7948.478980000001</v>
       </c>
       <c r="H98" s="21" t="n">
-        <v>9695.44247</v>
+        <v>8397.506740000001</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>7087.07552</v>
+        <v>12000.627</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>12585.25844</v>
@@ -5227,14 +5142,19 @@
         <v>14645.9899</v>
       </c>
       <c r="M98" s="22" t="n">
-        <v>25817.26566</v>
-      </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+        <v>25794.01491</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>36721.224</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>20223.42562</v>
@@ -5249,13 +5169,13 @@
         <v>14916.49053</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>17381.58592</v>
+        <v>17382.09038</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>17790.53818</v>
+        <v>17790.60432</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>31112.12334</v>
+        <v>31121.1393</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>45442.06536</v>
@@ -5264,17 +5184,22 @@
         <v>51087.20725</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>64226.81714</v>
+        <v>64231.22958</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>86138.55000999999</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>90236.11572999999</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>135695.177</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>28865.69115</v>
@@ -5307,14 +5232,19 @@
         <v>59916.20866</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>97005.38593</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>97222.71056000001</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>149792.443</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>9605.935820000001</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>17132.757</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>3480.65726</v>
@@ -5372,7 +5307,7 @@
         <v>3496.4973</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>3506.516900000001</v>
+        <v>3506.5169</v>
       </c>
       <c r="I102" s="22" t="n">
         <v>3511.920230000001</v>
@@ -5384,17 +5319,22 @@
         <v>3578.17895</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>3620.30421</v>
+        <v>3624.716649999999</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>3603.69682</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>3609.53494</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>3620.329</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0</v>
@@ -5421,7 +5361,7 @@
         <v>956.6331599999999</v>
       </c>
       <c r="K103" s="22" t="n">
-        <v>948.1197999999999</v>
+        <v>948.1198000000001</v>
       </c>
       <c r="L103" s="22" t="n">
         <v>948.1198000000001</v>
@@ -5429,33 +5369,38 @@
       <c r="M103" s="22" t="n">
         <v>1240.92528</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>3408.156</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>7035.84275</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>5864.038130000001</v>
+        <v>5864.03813</v>
       </c>
       <c r="E104" s="22" t="n">
         <v>6563.167469999999</v>
       </c>
       <c r="F104" s="21" t="n">
-        <v>7457.79104</v>
+        <v>7457.791040000001</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>8596.558800000001</v>
+        <v>8623.96277</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>10268.24889</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>15491.96602</v>
+        <v>15528.86228</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>15511.91608</v>
@@ -5467,20 +5412,25 @@
         <v>43856.22186</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>47421.99453</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>51578.05577</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>53239.696</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
-        <v>812.8332899999999</v>
+        <v>812.83329</v>
       </c>
       <c r="D105" s="22" t="n">
-        <v>846.0327499999999</v>
+        <v>846.03275</v>
       </c>
       <c r="E105" s="22" t="n">
         <v>1590.51189</v>
@@ -5507,14 +5457,19 @@
         <v>15175.37854</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>15632.88373</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>15632.89358</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>22938.534</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>19972.69883</v>
@@ -5529,13 +5484,13 @@
         <v>24683.78796</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>24645.58492</v>
+        <v>24672.48443</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>25538.49524</v>
+        <v>25538.4291</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>30451.89575</v>
+        <v>30479.77605</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>34920.62708</v>
@@ -5547,14 +5502,19 @@
         <v>67387.89412000001</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>88372.27209999999</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>88653.94021999999</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>114492.746</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>1.1</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>56.008</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>3006.77622</v>
@@ -5852,10 +5847,10 @@
         <v>3691.83018</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>7180.703310000001</v>
+        <v>7274.29287</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>15978.8504</v>
+        <v>16203.53534</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>20290.20375</v>
@@ -5864,20 +5859,25 @@
         <v>27811.01053</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>31712.15173000001</v>
+        <v>31877.07119</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>24280.4358</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>27702.36938</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>25507.176</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
-        <v>2876.2669</v>
+        <v>2876.266900000001</v>
       </c>
       <c r="D115" s="22" t="n">
         <v>2509.92651</v>
@@ -5892,10 +5892,10 @@
         <v>3691.83018</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>7180.703310000001</v>
+        <v>7274.29287</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>15978.8504</v>
+        <v>16203.53534</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>20284.37958</v>
@@ -5904,17 +5904,22 @@
         <v>27811.01053</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>31712.15173000001</v>
+        <v>31877.07119</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>24273.48972</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>27695.4233</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>25503.925</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>130.50932</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>6.94608</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>33.43400999999999</v>
@@ -5989,12 +5999,17 @@
       <c r="M117" s="23" t="n">
         <v>64595.46553</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>56570.06</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>32.88908</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>1732.67327</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>1732.673</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0.50159</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>17043.75811</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>7</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0.04334</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>38069.72928</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>38051.93</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,17 +6399,22 @@
         <v>2502.62247</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>8088.461699999999</v>
+        <v>8088.4617</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>7749.304869999999</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>7749.30487</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>16778.457</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>1097021.8311</v>
@@ -6369,29 +6429,32 @@
         <v>1634157.82457</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>1856975.31538</v>
+        <v>2015616.64221</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>2462959.97423</v>
+        <v>2445999.38286</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>2845529.67302</v>
+        <v>3106149.43668</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>3863294.00457</v>
+        <v>3863309.406330001</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>4787906.64279</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>6671556.687840001</v>
+        <v>6675233.82799</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>8545858.918049999</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>8630374.13116</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>11963330.009</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>102-Processing and preserving of fish, crustaceans and mollusks</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>612272.5156599999</v>
@@ -6501,32 +6578,37 @@
         <v>847717.07372</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>928202.4099499999</v>
+        <v>1014968.79775</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>1280322.42286</v>
+        <v>1263858.61532</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>1524428.00208</v>
+        <v>1674770.55257</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>1999382.48061</v>
+        <v>1999395.50063</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>2337268.25121</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>3368505.69542</v>
+        <v>3370005.6235</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>4233457.18541</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>4293026.3217</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>5375202.531</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>263161.06172</v>
@@ -6541,32 +6623,37 @@
         <v>294941.96451</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>339903.22475</v>
+        <v>407367.58241</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>504025.6082900001</v>
+        <v>486827.13699</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>662829.6971799999</v>
+        <v>770635.1525600001</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>931789.0056099999</v>
+        <v>931789.00561</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>1112268.06272</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>1557744.60308</v>
+        <v>1557749.60308</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>2053747.34226</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>2063748.30127</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>2343770.999</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>247124.81527</v>
@@ -6581,32 +6668,37 @@
         <v>278045.84035</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>305311.56995</v>
+        <v>372775.92761</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>463160.50484</v>
+        <v>445962.03354</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>549094.51254</v>
+        <v>656899.9679200001</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>740622.0663099999</v>
+        <v>740622.06631</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>1012817.98517</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>1298342.5847</v>
+        <v>1298347.5847</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>1830731.19149</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>1840727.64851</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>2159922.525</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>4297.74938</v>
@@ -6639,17 +6731,22 @@
         <v>3844.32992</v>
       </c>
       <c r="M135" s="22" t="n">
-        <v>3651.5024</v>
-      </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+        <v>3661.53325</v>
+      </c>
+      <c r="N135" s="22" t="n">
+        <v>4889.431</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
-        <v>552.14649</v>
+        <v>552.1464900000001</v>
       </c>
       <c r="D136" s="22" t="n">
         <v>972.2430000000001</v>
@@ -6679,14 +6776,19 @@
         <v>159.14248</v>
       </c>
       <c r="M136" s="22" t="n">
-        <v>244.33939</v>
-      </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+        <v>249.86825</v>
+      </c>
+      <c r="N136" s="22" t="n">
+        <v>763.116</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>10301.79163</v>
@@ -6713,7 +6815,7 @@
         <v>129577.0548</v>
       </c>
       <c r="K137" s="22" t="n">
-        <v>52342.55305</v>
+        <v>52342.55304999999</v>
       </c>
       <c r="L137" s="22" t="n">
         <v>240384.81193</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>192678.7848</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>174957.269</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>1988.85193</v>
@@ -6907,10 +7034,10 @@
         <v>18355.03218</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>38088.94752999999</v>
+        <v>38088.94753</v>
       </c>
       <c r="J142" s="21" t="n">
-        <v>60282.77959000001</v>
+        <v>60282.77959</v>
       </c>
       <c r="K142" s="22" t="n">
         <v>45737.02262</v>
@@ -6921,12 +7048,17 @@
       <c r="M142" s="22" t="n">
         <v>26930.20296</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>4764.89</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>238172.07207</v>
@@ -6941,13 +7073,13 @@
         <v>393001.61302</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>351728.70999</v>
+        <v>365199.05699</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>528435.82041</v>
+        <v>530700.79763</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>619021.43515</v>
+        <v>640357.17533</v>
       </c>
       <c r="J143" s="45" t="n">
         <v>699815.61774</v>
@@ -6956,17 +7088,22 @@
         <v>793782.59028</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>1160666.57194</v>
+        <v>1161554.81318</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>1466502.53825</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>1503279.84204</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>1819072.472</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>138790.65037</v>
@@ -6981,32 +7118,37 @@
         <v>238313.79277</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>199678.68496</v>
+        <v>206435.88869</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>305346.65471</v>
+        <v>306541.65021</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>356076.7077</v>
+        <v>365097.1427</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>396678.8256899999</v>
+        <v>396678.8256900001</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>458480.60019</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>750416.9036699999</v>
+        <v>751295.70491</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>1036690.03503</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>1049593.64066</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>1365599.381</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>95220.78671</v>
@@ -7021,13 +7163,13 @@
         <v>138437.03023</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>147380.3222</v>
+        <v>151382.69234</v>
       </c>
       <c r="H145" s="24" t="n">
-        <v>216221.00989</v>
+        <v>217589.19504</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>255568.333</v>
+        <v>264800.68897</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>292266.95728</v>
@@ -7039,14 +7181,19 @@
         <v>374263.77135</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>400209.9051099999</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>402537.4643399999</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>425024.094</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>121.88336</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>2654.65971</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>2055.515</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>119.25</v>
@@ -7121,15 +7273,20 @@
       <c r="M147" s="25" t="n">
         <v>231.38521</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>218.158</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
-        <v>4163.26835</v>
+        <v>4163.268349999999</v>
       </c>
       <c r="D148" s="25" t="n">
         <v>2927.61992</v>
@@ -7141,13 +7298,13 @@
         <v>16246.82131</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>4679.95474</v>
+        <v>7390.72787</v>
       </c>
       <c r="H148" s="24" t="n">
-        <v>6942.58469</v>
+        <v>6644.38126</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>8892.988120000002</v>
+        <v>11975.93733</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>11450.92888</v>
@@ -7156,57 +7313,67 @@
         <v>37892.60867</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>37173.64849</v>
+        <v>37183.08848999999</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>32025.87261</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>53572.01154000001</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>30286.354</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>44448.37111</v>
       </c>
       <c r="D149" s="23" t="n">
-        <v>57450.47841999999</v>
+        <v>57450.47842</v>
       </c>
       <c r="E149" s="23" t="n">
         <v>70934.18577</v>
       </c>
       <c r="F149" s="33" t="n">
-        <v>78915.73285999999</v>
+        <v>78915.73286</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>79409.82606000001</v>
+        <v>79997.20022</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>88096.77714000001</v>
+        <v>88061.06665000001</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>95480.03485</v>
+        <v>96510.93901</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>157469.97936</v>
+        <v>157482.99938</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>213347.1912</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>293859.30339</v>
+        <v>294064.69352</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>319421.90888</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>326816.8410599999</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>602715.062</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>30844.61019</v>
@@ -7221,32 +7388,37 @@
         <v>48319.7643</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>53018.97679000001</v>
+        <v>53018.97679</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>50745.97351</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>51876.68086</v>
+        <v>52443.08086</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>59711.25553</v>
+        <v>59724.27555</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>78779.51611</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>139164.54417</v>
+        <v>139279.54417</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>236349.12797</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>243221.27513</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>267689.07</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>1646.17157</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>127.06486</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>8705.982</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>6564.4211</v>
@@ -7341,13 +7523,13 @@
         <v>9445.506579999999</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>7427.723649999999</v>
+        <v>8012.144389999999</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>7950.167240000001</v>
+        <v>7924.347330000001</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>10647.23473</v>
+        <v>11094.45688</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>15638.56</v>
@@ -7356,17 +7538,22 @@
         <v>16847.56355</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>20413.93938</v>
+        <v>20492.55495</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>30934.76808</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>31380.58411</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>34483.294</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>5393.16825</v>
@@ -7381,32 +7568,37 @@
         <v>21006.80512</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>18923.12562</v>
+        <v>18926.07904</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>21650.49224</v>
+        <v>21640.60166</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>32956.11926</v>
+        <v>32973.40127</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>81371.79526</v>
+        <v>81371.79525999998</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>116889.54876</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>134280.81984</v>
+        <v>134292.5944</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>52010.94797</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>52087.91696</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>291836.716</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,18 +7633,23 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>38809.16467</v>
       </c>
       <c r="D156" s="23" t="n">
-        <v>51636.03971</v>
+        <v>51636.03971000001</v>
       </c>
       <c r="E156" s="23" t="n">
         <v>68167.70641</v>
@@ -7461,13 +7658,13 @@
         <v>50095.82472</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>130295.4596</v>
+        <v>133500.07647</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>117308.12255</v>
+        <v>120675.48545</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>108136.1815</v>
+        <v>113058.37189</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>117830.92218</v>
@@ -7476,20 +7673,25 @@
         <v>131834.1472</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>246771.61544</v>
+        <v>247122.4351</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>269583.26735</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>272088.04168</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>422335.969</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
-        <v>36735.91583999999</v>
+        <v>36735.91584</v>
       </c>
       <c r="D157" s="22" t="n">
         <v>48745.08917</v>
@@ -7501,13 +7703,13 @@
         <v>46203.35318</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>128472.18909</v>
+        <v>131676.80596</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>115420.6825</v>
+        <v>118788.0454</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>108053.227</v>
+        <v>112975.41739</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>117734.55086</v>
@@ -7516,17 +7718,22 @@
         <v>118346.36032</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>230587.18931</v>
+        <v>230938.00897</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>265067.59173</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>267572.36606</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>421537.321</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>2073.24883</v>
@@ -7550,7 +7757,7 @@
         <v>82.9545</v>
       </c>
       <c r="J158" s="21" t="n">
-        <v>96.37132</v>
+        <v>96.37132000000001</v>
       </c>
       <c r="K158" s="22" t="n">
         <v>13487.78688</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>4515.67562</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>798.648</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>19874.16898</v>
@@ -7701,13 +7928,13 @@
         <v>26003.91968</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>21834.75227</v>
+        <v>22381.03083</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>24219.82434</v>
+        <v>23382.12458</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>24879.39099</v>
+        <v>25760.59957</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>37954.31514</v>
@@ -7716,17 +7943,22 @@
         <v>60274.30956</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>59874.74325</v>
+        <v>59925.2203</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>68477.9789</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>70716.15358999999</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>80949.83199999999</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>2997.59392</v>
@@ -7741,13 +7973,13 @@
         <v>4227.14165</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>4014.99314</v>
+        <v>4126.39555</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>5078.99976</v>
+        <v>4315.66304</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>5821.219819999999</v>
+        <v>6183.070400000001</v>
       </c>
       <c r="J163" s="21" t="n">
         <v>8470.13075</v>
@@ -7756,17 +7988,22 @@
         <v>11027.1336</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>14131.52276</v>
+        <v>14144.10642</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>20257.56106</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>20780.77503</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>23243.947</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>4454.06838</v>
@@ -7775,19 +8012,19 @@
         <v>5598.32236</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>6765.393099999999</v>
+        <v>6765.3931</v>
       </c>
       <c r="F164" s="21" t="n">
         <v>7056.55685</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>9109.367320000001</v>
+        <v>9544.243470000001</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>10237.02216</v>
+        <v>10162.65912</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>11210.03329</v>
+        <v>11729.39129</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>14801.3661</v>
@@ -7796,17 +8033,22 @@
         <v>17613.58127</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>16435.50756</v>
+        <v>16473.40095</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>19809.71322</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>20787.39661</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>23920.176</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>12392.35748</v>
@@ -7821,13 +8063,13 @@
         <v>14717.48373</v>
       </c>
       <c r="G165" s="22" t="n">
-        <v>8694.546059999999</v>
+        <v>8694.546060000001</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>8700.86558</v>
+        <v>8700.865579999998</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>7794.93338</v>
+        <v>7794.933379999999</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>14618.68592</v>
@@ -7839,14 +8081,19 @@
         <v>29155.19452</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>28127.54464</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>28868.24397</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>33336.753</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>30.1492</v>
@@ -7855,7 +8102,7 @@
         <v>33.70302</v>
       </c>
       <c r="E166" s="22" t="n">
-        <v>6.207949999999999</v>
+        <v>6.20795</v>
       </c>
       <c r="F166" s="21" t="n">
         <v>2.73745</v>
@@ -7879,14 +8126,19 @@
         <v>152.51841</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>283.15998</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>279.73798</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>448.956</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>2477.83006</v>
@@ -7901,16 +8153,16 @@
         <v>2788.44603</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>2493.21827</v>
+        <v>2499.86557</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>12490.39195</v>
+        <v>10595.71205</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>10312.17504</v>
+        <v>12282.69609</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>8474.25713</v>
+        <v>8474.257129999998</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>13979.80837</v>
@@ -7919,14 +8171,19 @@
         <v>30924.78563</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>27491.59658</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>28152.14484</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>90472.58900000001</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>7088.81074</v>
@@ -7941,13 +8198,13 @@
         <v>24105.64056</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>7965.11887</v>
+        <v>9789.824670000002</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>32672.22389</v>
+        <v>33182.80176</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>42744.66933</v>
+        <v>49885.28039</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>38219.07521</v>
@@ -7956,20 +8213,25 @@
         <v>67622.72036000001</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>86536.55618000001</v>
+        <v>86536.55617999999</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>105306.26743</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>105591.33985</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>166951.526</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
-        <v>4796.11589</v>
+        <v>4796.115890000001</v>
       </c>
       <c r="D169" s="22" t="n">
         <v>10618.52349</v>
@@ -7981,13 +8243,13 @@
         <v>21368.16419</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>5480.143529999999</v>
+        <v>7298.202029999999</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>20310.0657</v>
+        <v>22715.32347</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>32458.57037</v>
+        <v>37628.66037999999</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>29759.69874</v>
@@ -7996,17 +8258,22 @@
         <v>53646.91115</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>55645.34996</v>
+        <v>55645.34995999999</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>77892.74111</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>77503.99859999999</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>77196.81</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>179.98192</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>59.4385</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>89.58499999999999</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>5.15329</v>
@@ -8079,14 +8351,19 @@
         <v>0</v>
       </c>
       <c r="M171" s="22" t="n">
-        <v>18.63176</v>
-      </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+        <v>5.36509</v>
+      </c>
+      <c r="N171" s="22" t="n">
+        <v>628.288</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>5300.43263</v>
@@ -8141,32 +8423,37 @@
         <v>1866.19766</v>
       </c>
       <c r="G173" s="23" t="n">
-        <v>2411.33571</v>
+        <v>3898.10196</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>5595.55565</v>
+        <v>3465.96944</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>3633.83869</v>
+        <v>16030.36944</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>45903.96129</v>
       </c>
       <c r="K173" s="23" t="n">
-        <v>8409.589039999999</v>
+        <v>8409.589040000001</v>
       </c>
       <c r="L173" s="23" t="n">
         <v>10058.07853</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>21345.45622</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>21346.63125</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>10247.446</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>1853.84018</v>
@@ -8201,33 +8488,38 @@
       <c r="M174" s="22" t="n">
         <v>329.2784599999999</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>427.983</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>3446.59245</v>
       </c>
       <c r="D175" s="22" t="n">
-        <v>5416.031650000001</v>
+        <v>5416.031649999999</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>5716.51924</v>
+        <v>5716.519240000001</v>
       </c>
       <c r="F175" s="21" t="n">
         <v>1866.19766</v>
       </c>
       <c r="G175" s="22" t="n">
-        <v>2411.33571</v>
+        <v>3898.10196</v>
       </c>
       <c r="H175" s="21" t="n">
-        <v>5595.55565</v>
+        <v>3465.96944</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>3382.99685</v>
+        <v>15779.5276</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>11516.59319</v>
@@ -8239,14 +8531,19 @@
         <v>9731.94347</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>21016.17776</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>21017.35279</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>9819.463</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>29.41442</v>
@@ -8279,14 +8576,19 @@
         <v>8605.99416</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>6887.096970000001</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>6878.365970000001</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>5638.162</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8319,14 +8621,19 @@
         <v>15.76131</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>31.61236</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>22.88136</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>10.805</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>29.41442</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>6844.42348</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>5538.435</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>11.06113</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>88.922</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>239295.96178</v>
@@ -8495,7 +8822,7 @@
         <v>275984.17645</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>309811.7667999999</v>
+        <v>309811.7668</v>
       </c>
       <c r="F182" s="33" t="n">
         <v>379394.44856</v>
@@ -8507,26 +8834,31 @@
         <v>418929.18392</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>450673.64855</v>
+        <v>450673.6485499999</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>562029.10924</v>
       </c>
       <c r="K182" s="23" t="n">
-        <v>874846.5665900002</v>
+        <v>874846.5665899999</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>1299689.1673</v>
+        <v>1300006.0673</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>1827344.57355</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>1837270.68704</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>2758547.064</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>198830.22456</v>
@@ -8556,17 +8888,22 @@
         <v>804428.82066</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>1218710.50084</v>
+        <v>1219027.40084</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>1767737.63362</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>1777640.49418</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>2705580.911</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>189549.9127</v>
@@ -8578,10 +8915,10 @@
         <v>247185.23958</v>
       </c>
       <c r="F184" s="21" t="n">
-        <v>303669.2703100001</v>
+        <v>303669.27031</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>323969.85417</v>
+        <v>323969.8541699999</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>322185.26801</v>
@@ -8590,23 +8927,28 @@
         <v>311792.13273</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>446902.2365700001</v>
+        <v>446902.23657</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>801351.9488999998</v>
+        <v>801351.9489000001</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>1215696.55833</v>
+        <v>1216013.45833</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>1764105.05176</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>1774007.91232</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>2689241.669</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>10994.82924</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>3746.75157</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>17780.465</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>1714.51738</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>114.16971</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>1441.223</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>48.252</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>2602.8142</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>4825.007</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>31.944</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>2597.0155</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>4825.007</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>16.308</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>5.7987</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>31773.52456</v>
@@ -9104,13 +9506,13 @@
         <v>69314.22303000001</v>
       </c>
       <c r="H197" s="33" t="n">
-        <v>90242.86028000002</v>
+        <v>90242.86028000001</v>
       </c>
       <c r="I197" s="23" t="n">
         <v>101901.92464</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>67370.11938</v>
+        <v>67370.11937999999</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>22522.89353</v>
@@ -9119,14 +9521,19 @@
         <v>35709.08381</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>38757.39627</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>38780.22213</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>31815.429</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>28653.23534</v>
@@ -9159,14 +9566,19 @@
         <v>28176.97098</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>33140.94709</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>33157.27711</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>29916.294</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>3108.778170000001</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>3664.40306</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>11.51105</v>
@@ -9344,7 +9776,7 @@
         <v>330.86065</v>
       </c>
       <c r="H203" s="21" t="n">
-        <v>645.3836</v>
+        <v>645.3836000000001</v>
       </c>
       <c r="I203" s="22" t="n">
         <v>989.29373</v>
@@ -9356,17 +9788,22 @@
         <v>4550.430179999999</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>3768.06654</v>
+        <v>3768.066539999999</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>1952.04612</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>1958.54196</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>1899.135</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>5550.13598</v>
@@ -9390,7 +9827,7 @@
         <v>63.68977</v>
       </c>
       <c r="J204" s="33" t="n">
-        <v>95.51236999999999</v>
+        <v>95.51237</v>
       </c>
       <c r="K204" s="23" t="n">
         <v>3.92207</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>3994.28207</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>3.922</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>5511.20029</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>38.93569</v>
@@ -9470,7 +9917,7 @@
         <v>63.68977</v>
       </c>
       <c r="J206" s="21" t="n">
-        <v>95.51236999999999</v>
+        <v>95.51237</v>
       </c>
       <c r="K206" s="22" t="n">
         <v>3.92207</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>3994.28207</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>3.922</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>3033.537</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>11083.98137</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>14087.314</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>3033.537</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>11083.98137</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>14087.314</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,18 +10063,23 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>60.28767999999999</v>
       </c>
       <c r="D210" s="23" t="n">
-        <v>81.50023</v>
+        <v>81.50023000000002</v>
       </c>
       <c r="E210" s="23" t="n">
         <v>5.00081</v>
@@ -9639,14 +10106,19 @@
         <v>34412.11401</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>3168.46602</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>3168.89309</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>2234.371</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,18 +10153,23 @@
       <c r="M211" s="22" t="n">
         <v>2977.96294</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>2113.508</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>60.28767999999999</v>
       </c>
       <c r="D212" s="22" t="n">
-        <v>81.50023</v>
+        <v>81.50023000000002</v>
       </c>
       <c r="E212" s="22" t="n">
         <v>5.00081</v>
@@ -9719,14 +10196,19 @@
         <v>197.38915</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>190.50308</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>190.93015</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>120.863</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>245453.35366</v>
@@ -9901,32 +10403,37 @@
         <v>407046.30229</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>528454.5884400001</v>
+        <v>600329.5274699999</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>763708.3674499999</v>
+        <v>763211.5836200002</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>870428.0223899999</v>
+        <v>980705.2355599999</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>1301882.41472</v>
+        <v>1301884.79646</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>1575791.82499</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>2003361.82512</v>
+        <v>2005222.13719</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>2485057.15909</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>2500077.12242</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>3829580.414</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>255392.47206</v>
@@ -9941,32 +10448,37 @@
         <v>403742.17389</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>415464.4915500001</v>
+        <v>422964.49155</v>
       </c>
       <c r="H218" s="33" t="n">
         <v>453694.49864</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>457523.8881400001</v>
+        <v>465023.88814</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>502895.6531400001</v>
+        <v>502995.65314</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>557790.4422899999</v>
+        <v>557790.44229</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>625598.3335399999</v>
+        <v>626185.83454</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>600637.1929</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>614215.67175</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>672694.752</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>242102.75158</v>
@@ -9975,38 +10487,43 @@
         <v>284129.4455800001</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>306524.44558</v>
+        <v>306524.4455800001</v>
       </c>
       <c r="F219" s="21" t="n">
         <v>423250.35124</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>430099.97043</v>
+        <v>437599.97043</v>
       </c>
       <c r="H219" s="21" t="n">
         <v>457549.27373</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>459849.7365</v>
+        <v>467349.7365</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>507854.7365</v>
+        <v>507954.7365</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>568079.98324</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>636328.24624</v>
+        <v>637828.2472400001</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>609504.2962400001</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>627830.69724</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>710557.902</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>10109.2195</v>
@@ -10036,17 +10553,22 @@
         <v>13186.61601</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>13328.58424</v>
+        <v>14241.08424</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>11442.94703</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>16213.69703</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>38393.018</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>23398.93998</v>
@@ -10073,20 +10595,25 @@
         <v>4448.2124</v>
       </c>
       <c r="K221" s="22" t="n">
-        <v>2931.10481</v>
+        <v>2931.104810000001</v>
       </c>
       <c r="L221" s="22" t="n">
         <v>2632.70129</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>2609.87344</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>2632.70129</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>2904.415</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,27 +10648,32 @@
       <c r="M222" s="22" t="n">
         <v>34.02975</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>2374.547</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>63404.93001</v>
       </c>
       <c r="D223" s="23" t="n">
-        <v>84488.53716999998</v>
+        <v>84488.53717</v>
       </c>
       <c r="E223" s="23" t="n">
-        <v>89723.21301000001</v>
+        <v>89723.21300999999</v>
       </c>
       <c r="F223" s="33" t="n">
         <v>31672.64126</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>40029.507</v>
+        <v>40029.50699999999</v>
       </c>
       <c r="H223" s="33" t="n">
         <v>46603.26013</v>
@@ -10150,23 +10682,28 @@
         <v>71566.32725</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>157728.607</v>
+        <v>158244.00262</v>
       </c>
       <c r="K223" s="23" t="n">
         <v>129803.16776</v>
       </c>
       <c r="L223" s="23" t="n">
-        <v>233752.09867</v>
+        <v>234847.52117</v>
       </c>
       <c r="M223" s="23" t="n">
         <v>216738.78033</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>457168.409</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>54334.63382</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>32004.876</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>32004.876</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>35543.62351</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>352972.333</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>1195.06673</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>1097.97498</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>1097.975</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10356,17 +10913,22 @@
         <v>50145.11849</v>
       </c>
       <c r="L228" s="22" t="n">
-        <v>133886.08158</v>
+        <v>134981.50408</v>
       </c>
       <c r="M228" s="22" t="n">
         <v>122730.78058</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>47138.858</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>7875.22946</v>
@@ -10427,10 +10994,10 @@
         <v>20116.60912</v>
       </c>
       <c r="I230" s="22" t="n">
-        <v>8256.094510000001</v>
+        <v>8256.094509999999</v>
       </c>
       <c r="J230" s="21" t="n">
-        <v>23485.99475</v>
+        <v>24001.39037</v>
       </c>
       <c r="K230" s="22" t="n">
         <v>15122.90051</v>
@@ -10441,33 +11008,38 @@
       <c r="M230" s="22" t="n">
         <v>25361.52526</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>23954.367</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>34396.66015</v>
       </c>
       <c r="D231" s="23" t="n">
-        <v>29384.96509</v>
+        <v>29384.96509000001</v>
       </c>
       <c r="E231" s="23" t="n">
-        <v>57015.16125</v>
+        <v>57015.16124999999</v>
       </c>
       <c r="F231" s="33" t="n">
         <v>57560.24891</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>108950.25548</v>
+        <v>110450.25548</v>
       </c>
       <c r="H231" s="33" t="n">
         <v>126310.48883</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>181015.6898</v>
+        <v>182515.6898</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>273960.17425</v>
@@ -10476,17 +11048,22 @@
         <v>323218.25872</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>358633.55631</v>
+        <v>358642.11163</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>488909.2545399999</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>489946.99944</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>670365.14</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>5800.29847</v>
@@ -10495,19 +11072,19 @@
         <v>6221.53474</v>
       </c>
       <c r="E232" s="22" t="n">
-        <v>7778.5667</v>
+        <v>7778.566700000001</v>
       </c>
       <c r="F232" s="21" t="n">
         <v>8850.293750000001</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>9590.04342</v>
+        <v>11090.04342</v>
       </c>
       <c r="H232" s="21" t="n">
         <v>13243.1605</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>26084.75401</v>
+        <v>27584.75401</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>31794.26225</v>
@@ -10516,17 +11093,22 @@
         <v>36020.73567</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>37859.01154</v>
+        <v>37867.56686</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>42076.87634999999</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>42094.1103</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>48652.1</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>281.6517900000001</v>
@@ -10535,10 +11117,10 @@
         <v>1310.55219</v>
       </c>
       <c r="E233" s="22" t="n">
-        <v>8150.79233</v>
+        <v>8150.792330000001</v>
       </c>
       <c r="F233" s="21" t="n">
-        <v>9944.131270000002</v>
+        <v>9944.13127</v>
       </c>
       <c r="G233" s="22" t="n">
         <v>10075.9005</v>
@@ -10550,23 +11132,28 @@
         <v>1433.03655</v>
       </c>
       <c r="J233" s="21" t="n">
-        <v>611.4053299999999</v>
+        <v>611.40533</v>
       </c>
       <c r="K233" s="22" t="n">
         <v>1483.4667</v>
       </c>
       <c r="L233" s="22" t="n">
-        <v>810.1536300000001</v>
+        <v>810.15363</v>
       </c>
       <c r="M233" s="22" t="n">
-        <v>995.0244399999999</v>
-      </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+        <v>995.02444</v>
+      </c>
+      <c r="N233" s="22" t="n">
+        <v>995.024</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>25661.44952</v>
@@ -10578,7 +11165,7 @@
         <v>36003.08715</v>
       </c>
       <c r="F234" s="21" t="n">
-        <v>35380.42895999999</v>
+        <v>35380.42896</v>
       </c>
       <c r="G234" s="22" t="n">
         <v>82883.48376999999</v>
@@ -10599,14 +11186,19 @@
         <v>238995.25608</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>363909.9594699999</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>363909.95947</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>505504.657</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>908.51412</v>
@@ -10641,18 +11233,23 @@
       <c r="M235" s="22" t="n">
         <v>3067.50131</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>3067.501</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>1744.74625</v>
       </c>
       <c r="D236" s="22" t="n">
-        <v>2774.14321</v>
+        <v>2774.143210000001</v>
       </c>
       <c r="E236" s="22" t="n">
         <v>5074.17638</v>
@@ -10679,14 +11276,19 @@
         <v>77901.63374999999</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>78859.89297</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>79880.40392</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>112145.858</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>71381.68249000001</v>
@@ -10701,35 +11303,40 @@
         <v>122009.26761</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>119595.62573</v>
+        <v>175446.62296</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>300468.78055</v>
+        <v>292063.93825</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>283053.71707</v>
+        <v>355768.48602</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>486185.44477</v>
+        <v>486734.15864</v>
       </c>
       <c r="K237" s="23" t="n">
-        <v>596274.5997900001</v>
+        <v>596274.59979</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>877042.9698000002</v>
+        <v>877261.27588</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>1154372.75407</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>1158952.94501</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>1665455.727</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
-        <v>-268369.1588499999</v>
+        <v>-268369.15885</v>
       </c>
       <c r="D238" s="23" t="n">
         <v>-213601.0488</v>
@@ -10750,69 +11357,79 @@
         <v>-279626.78172</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-305187.10464</v>
+        <v>-306343.2495</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-323762.98515</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-390559.9356300001</v>
+        <v>-390592.8501699999</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-552647.90544</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-556460.9694000001</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-576518.88</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>89246.76780000002</v>
+        <v>89246.7678</v>
       </c>
       <c r="D239" s="23" t="n">
         <v>52649.10962</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-1252.263909999998</v>
+        <v>-1252.263909999999</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>79408.74780000001</v>
+        <v>79408.7478</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>113326.18543</v>
+        <v>120350.12723</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>112253.29341</v>
+        <v>120161.35188</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>156895.18185</v>
+        <v>185457.62607</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>186299.6402</v>
+        <v>186294.05731</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>292468.3415800001</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>298894.8024299999</v>
+        <v>298878.24414</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>577047.08269</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>576683.6952900001</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>940415.2659999999</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>110732.00692</v>
       </c>
       <c r="D240" s="22" t="n">
-        <v>66343.98455000001</v>
+        <v>66343.98454999999</v>
       </c>
       <c r="E240" s="22" t="n">
         <v>77124.98024</v>
@@ -10821,13 +11438,13 @@
         <v>102848.11469</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>134048.38737</v>
+        <v>141072.32917</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>142326.63081</v>
+        <v>150234.68928</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>179264.58234</v>
+        <v>207827.02656</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>218278.70527</v>
@@ -10839,14 +11456,19 @@
         <v>432114.62745</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>592071.77831</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>592577.13959</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>1011112.871</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>21485.23912</v>
@@ -10870,23 +11492,28 @@
         <v>22369.40049</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>31979.06507</v>
+        <v>31984.64796</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>57773.65536</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>133219.82502</v>
+        <v>133236.38331</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>15024.69562</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>15893.4443</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>70697.605</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>1097021.8311</v>
@@ -10901,29 +11528,32 @@
         <v>1634157.82457</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>1856975.31538</v>
+        <v>2015616.64221</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>2462959.97423</v>
+        <v>2445999.382859999</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>2845529.67302</v>
+        <v>3106149.43668</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>3863294.00457</v>
+        <v>3863309.40633</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>4787906.64279</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>6671556.687840001</v>
+        <v>6675233.827990001</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>8545858.918049999</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>8630374.13116</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>11963330.009</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>91</v>
@@ -10957,29 +11590,32 @@
         <v>104</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H244" s="53" t="n">
         <v>117</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>158</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>148</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>175</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>191</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>